--- a/mapping_schemes/east/ERI_RES.xlsx
+++ b/mapping_schemes/east/ERI_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/East/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB99ECB-832F-1F4F-9132-5DFE8B80950F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C58C5B-B895-3442-8075-EAEA8929B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="540" windowWidth="12940" windowHeight="16060" firstSheet="1" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="12000" yWindow="540" windowWidth="12940" windowHeight="16060" firstSheet="1" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="88">
   <si>
     <t>MATO</t>
   </si>
@@ -3078,10 +3078,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3382,32 +3382,32 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3415,13 +3415,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3429,16 +3429,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3449,35 +3449,35 @@
         <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3485,13 +3485,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -3513,16 +3513,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2">
         <v>0.5</v>
@@ -3541,16 +3541,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3561,49 +3561,67 @@
         <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
@@ -3679,13 +3697,12 @@
       <c r="A53" s="10"/>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
-      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="5"/>
       <c r="C54" s="3"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
@@ -3727,6 +3744,7 @@
       <c r="A61" s="10"/>
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
@@ -3774,9 +3792,9 @@
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
@@ -3791,7 +3809,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
@@ -3806,11 +3824,11 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
@@ -3866,6 +3884,11 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3877,7 +3900,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
